--- a/biology/Botanique/Posoqueria/Posoqueria.xlsx
+++ b/biology/Botanique/Posoqueria/Posoqueria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Posoqueria est un genre d'arbuste, de la région néotropicale, appartenant à la famille des Rubiaceae, et comptant entre 27 et 60 espèces.
 L'espèce type est Posoqueria longiflora Aubl.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Posoqueria est un genre d'arbres ou d'arbustes à tiges glabres. 
 Les feuilles sont coriaces, avec des stipules interpétiolaires, généralement lancéolées. 
@@ -522,7 +536,7 @@
 La corolle est longuement tubulaire, zygomorphe à l'apex, de couleur blanche (devenant jaunâtre avec l'âge), avec des lobes contorsionnés dans le bourgeon.
 Les étamines sont insérées à l'embouchure de la corolle, et de longueur inégale : quatre pliées vers l'arrière en deux paires, et une étamine unique déposant une masse sphérique de pollen sur le pollinisateur.
 L'ovaire présnete 2 loges (ou une seule par avortement d'une loge), cointenant de  nombreux ovules dressés. 
-Le fruit est globuleux, de type baie bacciforme, à (1)-2 loges, avec l'exocarpe épais-coriacé, et contenant de nombreuses, grosses, graines "osseuses"[3],[4].
+Le fruit est globuleux, de type baie bacciforme, à (1)-2 loges, avec l'exocarpe épais-coriacé, et contenant de nombreuses, grosses, graines "osseuses",.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogénie et l'évolution anatomique des fleurs parmi les espèces du genre Posoqueria ont été étudiées[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénie et l'évolution anatomique des fleurs parmi les espèces du genre Posoqueria ont été étudiées.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « POSOQUERIA. (Tabula 51.)
 CAL. Perianthium monophyllum, turbinatum, quinquedentatum, denticulis acutis. 
 COR. monopetala, tubus longiſſimus, diſco ſuprà germen infertus, paulò ſuprà baſim incurvus, reliquâ ſuâ parte pendulus; faux villoſa, ventricoſa, limbus quinquefidus ; lobis oblongis, anguſtis, obtuſis, reflexis. 
@@ -621,9 +639,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (07 février 2024)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (07 février 2024) :
 Cyrtanthus longiflorus Steud.
 Posoqueria acutifolia Mart.
 Posoqueria bahiensis Macias &amp; L.S.Kinosh.
@@ -656,7 +676,7 @@
 Posoqueria velutina Standl.
 Posoqueria williamsii Steyerm.
 Solena talangiana D.Dietr.
-Selon Tropicos                                           (07 février 2024)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (07 février 2024) (Attention liste brute contenant possiblement des synonymes) :
 Posoqueria acuminata Mart., 1841
 Posoqueria acutifolia Mart., 1841
 Posoqueria bahiensis L. Macias &amp; Kin.-Gouv., 2003
@@ -682,7 +702,7 @@
 Posoqueria havanensis DC.
 Posoqueria huilensis Standl., 1930
 Posoqueria insignis (Schult. &amp; Roem.) Nees, 1821
-Posoqueria intermedia Miq., 1847 [1846]
+Posoqueria intermedia Miq., 1847 
 Posoqueria laevis C.M. Taylor, 2010
 Posoqueria latifolia (Rudge) Roem. &amp; Schult., 1819
 Posoqueria laurifolia Mart., 1841
